--- a/results/I3_N5_M3_T45_C200_DepCentral_s3_P1_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepCentral_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1170.123091560223</v>
+        <v>1073.49013953524</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.05534118906481</v>
+        <v>11.43422928288365</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.03358067341995</v>
+        <v>5.06951674225463</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>989.5899999999982</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.7</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.10555953090582</v>
+        <v>20.79579898937515</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>17.69023945846937</v>
       </c>
     </row>
     <row r="5">
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1121,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1135,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1163,23 +1163,9 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1282,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>252.1700000000004</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1293,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>257.0049999999997</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -1304,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>254.1300000000004</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>266.5799999999996</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1326,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>258.75</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1337,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>186.45</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1348,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>197.565</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1359,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>184.7550000000008</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1370,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>202.4</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1381,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>195.565</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1392,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>297.7700000000003</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1403,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>295.7299999999995</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1414,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>296.5250000000003</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1425,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>304.7549999999995</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -1436,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>300.0149999999995</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1447,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>61.69000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1458,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>62.66500000000029</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1469,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>66.29000000000029</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1480,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1491,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>61.57500000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1502,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>100.760000000001</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1513,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>100.7050000000002</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1524,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>103.625000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1535,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>112.5250000000002</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1546,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>109.0250000000002</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1557,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>297.7700000000003</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
@@ -1568,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>295.7299999999995</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -1579,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>296.5250000000003</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
@@ -1590,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>304.7549999999995</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
@@ -1601,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>300.0149999999995</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -1758,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>97.77000000000032</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -1769,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>95.72999999999951</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -1780,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>96.52500000000032</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1791,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>104.7549999999995</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1802,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>100.0149999999995</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1959,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1970,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1981,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1992,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2003,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2014,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2025,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2036,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2047,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2058,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2124,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2135,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2146,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2157,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2168,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2179,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2190,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2201,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2212,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2223,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2237,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2319,10 +2305,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2333,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2344,7 +2330,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2355,7 +2341,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2366,20 +2352,9 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
         <v>1</v>
       </c>
     </row>
